--- a/biology/Médecine/André_Fribourg-Blanc/André_Fribourg-Blanc.xlsx
+++ b/biology/Médecine/André_Fribourg-Blanc/André_Fribourg-Blanc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Fribourg-Blanc</t>
+          <t>André_Fribourg-Blanc</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">André Fribourg-Blanc, né à Grenoble le 17 mars 1888 et mort le 13 janvier 1963 dans la même ville, est un médecin général neuropsychiatre.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Fribourg-Blanc</t>
+          <t>André_Fribourg-Blanc</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fréquente à Grenoble le lycée Champollion puis prépare médecine et accomplit son service militaire dans la même ville. Il entre ensuite à l’École du service de santé militaire de Lyon en 1909, où il soutient sa thèse de médecine intitulée « Étude de l’enfance coupable ». Il fait son stage d’application à l'hôpital militaire du Val-de-Grâce en 1913.
 Il prend son premier poste de médecin militaire. Sur sa demande, il est envoyé au Maroc en 1914. Dès son arrivée, il entreprend la vaccination intensive des populations contre la typhoïde, ce qui lui vaut la médaille d'honneur des épidémies en 1919. Il participe aux opérations de la région de Taza, et reçoit sa première citation.
@@ -526,9 +540,6 @@
 En 1938, il est nommé à la direction de la 18e région militaire, à Bordeaux, ce qui l’éloigne définitivement de la médecine militaire, ses responsabilités portant désormais sur les problèmes d’organisation générale. Il rédige un article proposant une nouvelle organisation et un nouveau fonctionnement du service de neuropsychiatrie en temps de guerre (Revue du SSM - février 1940). Il est promu à la distinction de commandeur de la Légion d’honneur, en juillet 1939.
 A l’approche de la Seconde Guerre mondiale, il est nommé directeur du service de santé du 4e corps d'armée. Au cours des combats de mai 1940, il reçoit la Croix de guerre 1939-1945 (7e citation). Fait prisonnier le 29 mai 1940, il est déporté en Allemagne puis libéré en décembre. En 1941, il est nommé directeur du service de santé de la région militaire de Paris et coordonnateur de toute la France occupée. Il accède au grade de médecin général. Il est chargé de l’organisation des hôpitaux militaires et de la Croix-Rouge, mais aussi des camps de prisonniers : transports, gestion du personnel médical, approvisionnements. Il se déplace fréquemment pour inspection et il rend compte de son travail au secrétaire d’État. Il est mis à contribution pour la question de la « relève des médecins » prisonniers. Il réussit à mettre à couvert plusieurs médecins juifs et s’arrange pour favoriser l’action de la Résistance. Il accède au grade de médecin général inspecteur en février 1944.
 À la Libération, il est dégradé. Après s’être justifié devant une commission d’épuration, il est réhabilité, mais ne retrouvera son rang qu’en 1956. Il obtient sa retraite en mars 1946 et rentre à Grenoble en juillet. Il est nommé vice-président du congrès international pour les maladies professionnelles à Genève, puis président au congrès des aliénistes et neurologistes en 1947. Il ouvre alors à Grenoble un cabinet psychiatrique privé. Pour ses actions auprès de l’Association régionale de sauvegarde de l’enfance et de l’adolescence, il est nommé commandeur de la santé publique en mars 1962.
-Famille
-André Fribourg-Blanc avait fait la connaissance de Lida Rudowska une bactériologiste originaire de Pologne, à Paris en 1913, alors qu’elle était encore étudiante (thèse de médecine en 1914). Ils ont dix enfants entre 1917 et 1935 ; mais six d’entre eux meurent en bas âge. Lida Fribourg-Blanc meurt en 1949 après la mort de l'aîné de ses enfants.
-André Fribourg-Blanc meurt à son domicile de Grenoble le 13 janvier 1963.
 </t>
         </is>
       </c>
@@ -539,7 +550,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Fribourg-Blanc</t>
+          <t>André_Fribourg-Blanc</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -554,10 +565,50 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Famille</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">André Fribourg-Blanc avait fait la connaissance de Lida Rudowska une bactériologiste originaire de Pologne, à Paris en 1913, alors qu’elle était encore étudiante (thèse de médecine en 1914). Ils ont dix enfants entre 1917 et 1935 ; mais six d’entre eux meurent en bas âge. Lida Fribourg-Blanc meurt en 1949 après la mort de l'aîné de ses enfants.
+André Fribourg-Blanc meurt à son domicile de Grenoble le 13 janvier 1963.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>André_Fribourg-Blanc</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Andr%C3%A9_Fribourg-Blanc</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Recherches</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Le traitement de la paralysie générale par la malariathérapie, qu’il introduit au Val-de-Grâce en septembre 1925. Il publie un ouvrage sur ce sujet : Le Traitement de la paralysie générale et du tabès par la malaria provoquée (Masson - 1929) et expose ses résultats aux congrès médicaux de Québec (1934) et de Liège (1939).
 Une étude sur les conséquences neuropsychiatriques de la guerre dont les résultats sont exposés aux congrès médicaux, entre 1928 et 1932. En s'appuyant sur son expérience passée, il montre l’évolution et les conséquences des blessures du crâne. Ces travaux débouchent sur une loi fixant de nouveaux barèmes pour les pensions d’invalidité. Ils sont étendus à l’étude des psychoses de guerre qui fait l’objet de l’ouvrage : La Folie et la guerre de 1914 - 1918 (Librairie Masson - 1929).
